--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/squiresrb/Documents/GitHub/nbp_events_niaid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAEEFBE-39EE-B046-93BA-0F1A7B5E16AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9047F9-DE32-4846-BC5C-074E5E9F678E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3520" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>type</t>
   </si>
@@ -106,21 +106,6 @@
     <t>Overview of real-world data and statistical analysis concepts, data analysis and visualization of a real-world dataset</t>
   </si>
   <si>
-    <t>Statistics</t>
-  </si>
-  <si>
-    <t>Statistical hypothesis testing in Prism</t>
-  </si>
-  <si>
-    <t>Overview: This workshop will focus on how to choose an appropriate statistical test given data and hypothesis. It will include a hands on section for attendees to practice how to run these tests using Prism. Specific topic include the following: unpaired t-test, paired t-test, ordinary one-way ANOVA, repeated measures one-way ANOVA and non-parametric tests, Chi-square test and Fisher’s exact test.</t>
-  </si>
-  <si>
-    <t>1:00PM</t>
-  </si>
-  <si>
-    <t>12:00PM</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -130,16 +115,13 @@
     <t>Remote</t>
   </si>
   <si>
-    <t>Bethesda, MD</t>
-  </si>
-  <si>
     <t>RSNA 2023 Test</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>Prism</t>
+    <t>https://nih.zoomgov.com/j/1618272266?pwd=U281WDVxLzcyN0VNdkd3d3kzQ2d3Zz09</t>
   </si>
 </sst>
 </file>
@@ -1001,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,7 +1048,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1">
         <v>45256</v>
@@ -1109,23 +1091,26 @@
       <c r="D3" s="1">
         <v>45481</v>
       </c>
-      <c r="E3" t="s">
-        <v>31</v>
+      <c r="E3">
+        <v>1720443600</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>21</v>
@@ -1144,23 +1129,26 @@
       <c r="D4" s="1">
         <v>45488</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
+      <c r="E4">
+        <v>1721048400</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>21</v>
@@ -1179,23 +1167,26 @@
       <c r="D5" s="1">
         <v>45495</v>
       </c>
-      <c r="E5" t="s">
-        <v>31</v>
+      <c r="E5">
+        <v>1721653200</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>21</v>
@@ -1214,66 +1205,34 @@
       <c r="D6" s="1">
         <v>45502</v>
       </c>
-      <c r="E6" t="s">
-        <v>31</v>
+      <c r="E6">
+        <v>1722258000</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
         <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45413</v>
-      </c>
-      <c r="D7" s="1">
-        <v>45413</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/squiresrb/Documents/GitHub/nbp_events_niaid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/booirizarryy/Documents/nbp_events_niaid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9047F9-DE32-4846-BC5C-074E5E9F678E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC32E99-C252-E04D-95B3-5FB99FBE6B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="2180" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="events2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>type</t>
   </si>
@@ -122,13 +122,22 @@
   </si>
   <si>
     <t>https://nih.zoomgov.com/j/1618272266?pwd=U281WDVxLzcyN0VNdkd3d3kzQ2d3Zz09</t>
+  </si>
+  <si>
+    <t>3D printing</t>
+  </si>
+  <si>
+    <t>How to Print a Dragon</t>
+  </si>
+  <si>
+    <t>Printing a Dragon is amazing. Happy Dragon!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,6 +270,12 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -605,9 +620,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -986,7 +1002,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -995,9 +1011,9 @@
     <col min="2" max="2" width="34.83203125" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="255.83203125" bestFit="1" customWidth="1"/>
@@ -1231,10 +1247,39 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45523</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45523</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1724089786</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/booirizarryy/Documents/nbp_events_niaid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC32E99-C252-E04D-95B3-5FB99FBE6B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32CD3A37-C086-4549-B0D0-A22F578DC31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3520" yWindow="2180" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,10 +127,10 @@
     <t>3D printing</t>
   </si>
   <si>
-    <t>How to Print a Dragon</t>
-  </si>
-  <si>
-    <t>Printing a Dragon is amazing. Happy Dragon!</t>
+    <t>How to Print a Dragon in 3D</t>
+  </si>
+  <si>
+    <t>Printing a Dragon is amazing. Happy Year of the Dragon!</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/booirizarryy/Documents/nbp_events_niaid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32CD3A37-C086-4549-B0D0-A22F578DC31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E21904D-8A1A-6D4F-827D-FF77131219D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3520" yWindow="2180" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
     <t>How to Print a Dragon in 3D</t>
   </si>
   <si>
-    <t>Printing a Dragon is amazing. Happy Year of the Dragon!</t>
+    <t>Printing a Dragon is amazing. Happy Year of the Dragon</t>
   </si>
 </sst>
 </file>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/booirizarryy/Documents/nbp_events_niaid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E21904D-8A1A-6D4F-827D-FF77131219D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B274C6-9919-DE40-A424-00021FC9FB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3520" yWindow="2180" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>type</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>Printing a Dragon is amazing. Happy Year of the Dragon</t>
+  </si>
+  <si>
+    <t>speaker</t>
+  </si>
+  <si>
+    <t>Darrel Hurt</t>
+  </si>
+  <si>
+    <t>Richard Squires</t>
+  </si>
+  <si>
+    <t>David Liou</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1021,7 +1033,7 @@
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1058,8 +1070,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1093,8 +1108,11 @@
       <c r="K2" t="s">
         <v>18</v>
       </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1131,8 +1149,11 @@
       <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1169,8 +1190,11 @@
       <c r="L4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1207,8 +1231,11 @@
       <c r="L5" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1245,8 +1272,11 @@
       <c r="L6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1276,6 +1306,9 @@
       </c>
       <c r="J7" t="s">
         <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/booirizarryy/Documents/nbp_events_niaid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/squiresrb/Documents/GitHub/nbp_events_niaid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B274C6-9919-DE40-A424-00021FC9FB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED8472B-3826-F54F-B584-BF7F03397BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="2180" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4660" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="events2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>type</t>
   </si>
@@ -139,10 +152,22 @@
     <t>Darrel Hurt</t>
   </si>
   <si>
-    <t>Richard Squires</t>
-  </si>
-  <si>
     <t>David Liou</t>
+  </si>
+  <si>
+    <t>Mina Peyton / Yuyan Yi</t>
+  </si>
+  <si>
+    <t>date_to_timestamp</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>time_fraction</t>
+  </si>
+  <si>
+    <t>timestamp_calc</t>
   </si>
 </sst>
 </file>
@@ -632,10 +657,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1011,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1023,17 +1050,22 @@
     <col min="2" max="2" width="34.83203125" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="72.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="119.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1047,34 +1079,46 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>37</v>
       </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1087,32 +1131,47 @@
       <c r="D2" s="1">
         <v>45259</v>
       </c>
-      <c r="E2">
-        <v>1700956851</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1700956800.5416667</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>38</v>
       </c>
+      <c r="P2" s="2">
+        <f>(C2-DATE(1970,1,1))*86400</f>
+        <v>1700956800</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>13/24</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R2" s="2">
+        <f>P2+Q2</f>
+        <v>1700956800.5416667</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1120,40 +1179,55 @@
         <v>20</v>
       </c>
       <c r="C3" s="1">
-        <v>45481</v>
+        <v>45534</v>
       </c>
       <c r="D3" s="1">
-        <v>45481</v>
-      </c>
-      <c r="E3">
-        <v>1720443600</v>
-      </c>
-      <c r="F3" t="s">
+        <v>45534</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1724976000.5416667</v>
+      </c>
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s">
-        <v>39</v>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="2">
+        <f>(C3-DATE(1970,1,1))*86400</f>
+        <v>1724976000</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>13/24</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R3" s="2">
+        <f>P3+Q3</f>
+        <v>1724976000.5416667</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1161,40 +1235,55 @@
         <v>23</v>
       </c>
       <c r="C4" s="1">
-        <v>45488</v>
+        <v>45541</v>
       </c>
       <c r="D4" s="1">
-        <v>45488</v>
-      </c>
-      <c r="E4">
-        <v>1721048400</v>
-      </c>
-      <c r="F4" t="s">
+        <v>45541</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1725580800.5416667</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M4" t="s">
-        <v>39</v>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="2">
+        <f>(C4-DATE(1970,1,1))*86400</f>
+        <v>1725580800</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>13/24</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R4" s="2">
+        <f>P4+Q4</f>
+        <v>1725580800.5416667</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1202,40 +1291,55 @@
         <v>24</v>
       </c>
       <c r="C5" s="1">
-        <v>45495</v>
+        <v>45548</v>
       </c>
       <c r="D5" s="1">
-        <v>45495</v>
-      </c>
-      <c r="E5">
-        <v>1721653200</v>
-      </c>
-      <c r="F5" t="s">
+        <v>45548</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1726185600.5416667</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M5" t="s">
-        <v>39</v>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="2">
+        <f>(C5-DATE(1970,1,1))*86400</f>
+        <v>1726185600</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>13/24</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R5" s="2">
+        <f>P5+Q5</f>
+        <v>1726185600.5416667</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1243,40 +1347,55 @@
         <v>26</v>
       </c>
       <c r="C6" s="1">
-        <v>45502</v>
+        <v>45555</v>
       </c>
       <c r="D6" s="1">
-        <v>45502</v>
-      </c>
-      <c r="E6">
-        <v>1722258000</v>
-      </c>
-      <c r="F6" t="s">
+        <v>45555</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1726790400.5416667</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>28</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>27</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M6" t="s">
-        <v>39</v>
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="2">
+        <f>(C6-DATE(1970,1,1))*86400</f>
+        <v>1726790400</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>13/24</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R6" s="2">
+        <f>P6+Q6</f>
+        <v>1726790400.5416667</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1289,26 +1408,41 @@
       <c r="D7" s="1">
         <v>45523</v>
       </c>
-      <c r="E7" s="2">
-        <v>1724089786</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1724025600.5416667</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>29</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>28</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>36</v>
       </c>
-      <c r="M7" t="s">
-        <v>40</v>
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="2">
+        <f>(C7-DATE(1970,1,1))*86400</f>
+        <v>1724025600</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>13/24</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R7" s="2">
+        <f>P7+Q7</f>
+        <v>1724025600.5416667</v>
       </c>
     </row>
   </sheetData>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/squiresrb/Documents/GitHub/nbp_events_niaid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED8472B-3826-F54F-B584-BF7F03397BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D52892-D2B9-0146-8B45-67246DECC8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4660" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>type</t>
   </si>
@@ -137,22 +137,10 @@
     <t>https://nih.zoomgov.com/j/1618272266?pwd=U281WDVxLzcyN0VNdkd3d3kzQ2d3Zz09</t>
   </si>
   <si>
-    <t>3D printing</t>
-  </si>
-  <si>
-    <t>How to Print a Dragon in 3D</t>
-  </si>
-  <si>
-    <t>Printing a Dragon is amazing. Happy Year of the Dragon</t>
-  </si>
-  <si>
     <t>speaker</t>
   </si>
   <si>
     <t>Darrel Hurt</t>
-  </si>
-  <si>
-    <t>David Liou</t>
   </si>
   <si>
     <t>Mina Peyton / Yuyan Yi</t>
@@ -174,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,12 +295,6 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -657,12 +639,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1038,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1079,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1106,16 +1087,16 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="P1" t="s">
-        <v>41</v>
-      </c>
       <c r="Q1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1156,18 +1137,18 @@
         <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P2" s="2">
-        <f>(C2-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="P2:P6" si="0">(C2-DATE(1970,1,1))*86400</f>
         <v>1700956800</v>
       </c>
       <c r="Q2" s="2">
-        <f>13/24</f>
+        <f t="shared" ref="Q2:Q6" si="1">13/24</f>
         <v>0.54166666666666663</v>
       </c>
       <c r="R2" s="2">
-        <f>P2+Q2</f>
+        <f t="shared" ref="R2:R6" si="2">P2+Q2</f>
         <v>1700956800.5416667</v>
       </c>
     </row>
@@ -1212,18 +1193,18 @@
         <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P3" s="2">
-        <f>(C3-DATE(1970,1,1))*86400</f>
+        <f t="shared" si="0"/>
         <v>1724976000</v>
       </c>
       <c r="Q3" s="2">
-        <f>13/24</f>
+        <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="R3" s="2">
-        <f>P3+Q3</f>
+        <f t="shared" si="2"/>
         <v>1724976000.5416667</v>
       </c>
     </row>
@@ -1268,18 +1249,18 @@
         <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P4" s="2">
-        <f>(C4-DATE(1970,1,1))*86400</f>
+        <f t="shared" si="0"/>
         <v>1725580800</v>
       </c>
       <c r="Q4" s="2">
-        <f>13/24</f>
+        <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="R4" s="2">
-        <f>P4+Q4</f>
+        <f t="shared" si="2"/>
         <v>1725580800.5416667</v>
       </c>
     </row>
@@ -1324,18 +1305,18 @@
         <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P5" s="2">
-        <f>(C5-DATE(1970,1,1))*86400</f>
+        <f t="shared" si="0"/>
         <v>1726185600</v>
       </c>
       <c r="Q5" s="2">
-        <f>13/24</f>
+        <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="R5" s="2">
-        <f>P5+Q5</f>
+        <f t="shared" si="2"/>
         <v>1726185600.5416667</v>
       </c>
     </row>
@@ -1380,69 +1361,19 @@
         <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P6" s="2">
-        <f>(C6-DATE(1970,1,1))*86400</f>
+        <f t="shared" si="0"/>
         <v>1726790400</v>
       </c>
       <c r="Q6" s="2">
-        <f>13/24</f>
+        <f t="shared" si="1"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="R6" s="2">
-        <f>P6+Q6</f>
+        <f t="shared" si="2"/>
         <v>1726790400.5416667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45523</v>
-      </c>
-      <c r="D7" s="1">
-        <v>45523</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1724025600.5416667</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="2">
-        <f>(C7-DATE(1970,1,1))*86400</f>
-        <v>1724025600</v>
-      </c>
-      <c r="Q7" s="2">
-        <f>13/24</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="R7" s="2">
-        <f>P7+Q7</f>
-        <v>1724025600.5416667</v>
       </c>
     </row>
   </sheetData>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/squiresrb/Documents/GitHub/nbp_events_niaid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D52892-D2B9-0146-8B45-67246DECC8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C4886D-6DA2-F341-9A36-41F585985E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4660" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>type</t>
   </si>
@@ -71,27 +71,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>NIAID BioVisualization</t>
-  </si>
-  <si>
-    <t>Chicago IL</t>
-  </si>
-  <si>
-    <t>https://bioinformatics.niaid.nih.gov/rsna-2023</t>
-  </si>
-  <si>
-    <t>Exhibit</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>The NIAID Bioinformatics and Computational Biology  team will be presenting as part of the technical exhibits at the Radiological Society of North America (RSNA) Annual Meeting  from Nov 26-29th, 2023 in Chicago, Illinois. Please come visit us to learn more about the applications and services that our team provides at NIAID.</t>
-  </si>
-  <si>
-    <t>RSNA</t>
-  </si>
-  <si>
     <t>Scientific programming</t>
   </si>
   <si>
@@ -128,21 +107,12 @@
     <t>Remote</t>
   </si>
   <si>
-    <t>RSNA 2023 Test</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>https://nih.zoomgov.com/j/1618272266?pwd=U281WDVxLzcyN0VNdkd3d3kzQ2d3Zz09</t>
-  </si>
-  <si>
     <t>speaker</t>
   </si>
   <si>
-    <t>Darrel Hurt</t>
-  </si>
-  <si>
     <t>Mina Peyton / Yuyan Yi</t>
   </si>
   <si>
@@ -156,13 +126,25 @@
   </si>
   <si>
     <t>timestamp_calc</t>
+  </si>
+  <si>
+    <t>https://nih.zoomgov.com/s/1614425984</t>
+  </si>
+  <si>
+    <t>https://nih.zoomgov.com/s/1606474134</t>
+  </si>
+  <si>
+    <t>https://nih.zoomgov.com/s/1603727457</t>
+  </si>
+  <si>
+    <t>https://nih.zoomgov.com/s/1606195791</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -293,6 +275,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -595,7 +585,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -638,14 +628,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -679,6 +671,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1019,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1027,7 @@
     <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="72.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="119.33203125" customWidth="1"/>
@@ -1060,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1087,16 +1080,16 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="Q1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="R1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1104,100 +1097,103 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
-        <v>45256</v>
+        <v>45534</v>
       </c>
       <c r="D2" s="1">
-        <v>45259</v>
+        <v>45534</v>
       </c>
       <c r="E2" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="F2" s="2">
-        <v>1700956800.5416667</v>
+        <v>1724976000.5416667</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P2" s="2">
-        <f t="shared" ref="P2:P6" si="0">(C2-DATE(1970,1,1))*86400</f>
-        <v>1700956800</v>
+        <f t="shared" ref="P2:P5" si="0">(C2-DATE(1970,1,1))*86400</f>
+        <v>1724976000</v>
       </c>
       <c r="Q2" s="2">
-        <f t="shared" ref="Q2:Q6" si="1">13/24</f>
+        <f t="shared" ref="Q2:Q5" si="1">13/24</f>
         <v>0.54166666666666663</v>
       </c>
       <c r="R2" s="2">
-        <f t="shared" ref="R2:R6" si="2">P2+Q2</f>
-        <v>1700956800.5416667</v>
+        <f t="shared" ref="R2:R5" si="2">P2+Q2</f>
+        <v>1724976000.5416667</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="D3" s="1">
-        <v>45534</v>
+        <v>45541</v>
       </c>
       <c r="E3" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="F3" s="2">
-        <v>1724976000.5416667</v>
+        <v>1725580800.5416667</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="0"/>
-        <v>1724976000</v>
+        <v>1725580800</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" si="1"/>
@@ -1205,55 +1201,55 @@
       </c>
       <c r="R3" s="2">
         <f t="shared" si="2"/>
-        <v>1724976000.5416667</v>
+        <v>1725580800.5416667</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="D4" s="1">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="E4" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="F4" s="2">
-        <v>1725580800.5416667</v>
+        <v>1726185600.5416667</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>1725580800</v>
+        <v>1726185600</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="1"/>
@@ -1261,55 +1257,55 @@
       </c>
       <c r="R4" s="2">
         <f t="shared" si="2"/>
-        <v>1725580800.5416667</v>
+        <v>1726185600.5416667</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
       <c r="C5" s="1">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="D5" s="1">
-        <v>45548</v>
+        <v>45555</v>
       </c>
       <c r="E5" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="F5" s="2">
-        <v>1726185600.5416667</v>
+        <v>1726790400.5416667</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>1726185600</v>
+        <v>1726790400</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="1"/>
@@ -1317,66 +1313,16 @@
       </c>
       <c r="R5" s="2">
         <f t="shared" si="2"/>
-        <v>1726185600.5416667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45555</v>
-      </c>
-      <c r="D6" s="1">
-        <v>45555</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1726790400.5416667</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" si="0"/>
-        <v>1726790400</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="R6" s="2">
-        <f t="shared" si="2"/>
         <v>1726790400.5416667</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" tooltip="https://nih.zoomgov.com/s/1614425984" xr:uid="{F6B0D7EE-A771-4E49-BCA3-F0E17F3C474F}"/>
+    <hyperlink ref="H3" r:id="rId2" tooltip="https://nih.zoomgov.com/s/1606474134" xr:uid="{0B4D09E2-B397-2148-82A6-8C0D46A5099E}"/>
+    <hyperlink ref="H5" r:id="rId3" tooltip="https://nih.zoomgov.com/s/1603727457" xr:uid="{D1CD666B-35EB-C145-A226-6A27639DA5A4}"/>
+    <hyperlink ref="H2" r:id="rId4" tooltip="https://nih.zoomgov.com/s/1606195791" xr:uid="{1E3588D2-ACA2-254A-9653-E73FCC171D06}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/squiresrb/Documents/GitHub/nbp_events_niaid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C4886D-6DA2-F341-9A36-41F585985E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5520825F-34F0-8A4D-893D-06C7F02AB297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4660" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,16 +128,16 @@
     <t>timestamp_calc</t>
   </si>
   <si>
-    <t>https://nih.zoomgov.com/s/1614425984</t>
-  </si>
-  <si>
-    <t>https://nih.zoomgov.com/s/1606474134</t>
-  </si>
-  <si>
-    <t>https://nih.zoomgov.com/s/1603727457</t>
-  </si>
-  <si>
-    <t>https://nih.zoomgov.com/s/1606195791</t>
+    <t>https://nih.zoomgov.com/meeting/register/vJItceihqzwjG8zd_2DT6MPNBnDW-weO5Mc</t>
+  </si>
+  <si>
+    <t>https://nih.zoomgov.com/meeting/register/vJItce2vqjopHkifaPaJDTNXWnd4lpIVqos</t>
+  </si>
+  <si>
+    <t>https://nih.zoomgov.com/meeting/register/vJIsc-2qqzIiHjQSlPgChx2Y8ZSqYQAVpJ8</t>
+  </si>
+  <si>
+    <t>https://nih.zoomgov.com/meeting/register/vJItdO6qqT8vHcm1uNVl7qLADShJAAiY20M</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1115,7 +1115,7 @@
         <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -1227,7 +1227,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -1283,7 +1283,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -1317,12 +1317,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" tooltip="https://nih.zoomgov.com/s/1614425984" xr:uid="{F6B0D7EE-A771-4E49-BCA3-F0E17F3C474F}"/>
-    <hyperlink ref="H3" r:id="rId2" tooltip="https://nih.zoomgov.com/s/1606474134" xr:uid="{0B4D09E2-B397-2148-82A6-8C0D46A5099E}"/>
-    <hyperlink ref="H5" r:id="rId3" tooltip="https://nih.zoomgov.com/s/1603727457" xr:uid="{D1CD666B-35EB-C145-A226-6A27639DA5A4}"/>
-    <hyperlink ref="H2" r:id="rId4" tooltip="https://nih.zoomgov.com/s/1606195791" xr:uid="{1E3588D2-ACA2-254A-9653-E73FCC171D06}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/squiresrb/Documents/GitHub/nbp_events_niaid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5520825F-34F0-8A4D-893D-06C7F02AB297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6987DEE-345F-E347-8044-7261DEC80211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5000" yWindow="-20360" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="events2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>type</t>
   </si>
@@ -138,6 +138,69 @@
   </si>
   <si>
     <t>https://nih.zoomgov.com/meeting/register/vJItdO6qqT8vHcm1uNVl7qLADShJAAiY20M</t>
+  </si>
+  <si>
+    <t>16S Amplicon Sequence Analysis with DADA2 and R</t>
+  </si>
+  <si>
+    <t>Next Generation Sequencing</t>
+  </si>
+  <si>
+    <t>16S, R</t>
+  </si>
+  <si>
+    <t>Shotgun Metagenomics Using Nephele</t>
+  </si>
+  <si>
+    <t>Spatial Transcriptomics Introduction and Tutorial (Part 2)</t>
+  </si>
+  <si>
+    <t>Spatial Transcriptomics Introduction and Tutorial (Part I)</t>
+  </si>
+  <si>
+    <t>Statistical Analysis of Microbiome Data</t>
+  </si>
+  <si>
+    <t>Microbiome</t>
+  </si>
+  <si>
+    <t>Learn the nuts and bolts of 16S amplicon microbiome sequence analysis with DADA2. This hands-on tutorial will walk through all key steps in detail, providing understanding about each component and common pitfalls. Feel free to bring data from a current project, too! While most of the training will be taught in R, limited R coding experience will be necessary.</t>
+  </si>
+  <si>
+    <t>Learn microbiome analysis basics in R with phyloseq. This workshop will cover different types of analysis frequently used in microbiome studies, including sample diversity, community composition, and differential taxa. The techniques we learn will be applicable to both amplicon and metagenomic data.</t>
+  </si>
+  <si>
+    <t>Introduction to spatial transcriptomics methods and concepts for STx data analysis.</t>
+  </si>
+  <si>
+    <t>Hands-on workshop using R and Seurat to analyze an example spatial transcriptomics dataset.</t>
+  </si>
+  <si>
+    <t>A hands-on workshop for analyzing metagenomes in the open-source microbiome application Nephele. Participants will first learn how to navigate Nephele and process their reads to trim and filter for quality. They will then learn how to run their data through the WGSA2 pipeline to assemble metagenomic reads, obtain taxonomic and functional annotations and abundances for downstream analyses, generate metagenome assembled genomes, explore viruses, and more.</t>
+  </si>
+  <si>
+    <t>https://nih.zoomgov.com/meeting/register/vJIsfuGrqDgoEq06dtCsG9iZvpV3u3bbOuE</t>
+  </si>
+  <si>
+    <t>https://nih.zoomgov.com/meeting/register/vJItd-usqTkoHGnlbkmiHP_oL82zIH1jFxk</t>
+  </si>
+  <si>
+    <t>https://nih.zoomgov.com/meeting/register/vJItceyupjMuH9fwvmt_zqUXFIM4p6BwCgo</t>
+  </si>
+  <si>
+    <t>https://nih.zoomgov.com/meeting/register/vJItd-isrjojGpCH_Sr9xzWmdhI8YTR2g4k</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://nih.zoomgov.com/meeting/register/vJItc--urTkiHBI4Gh5kRuqucJCkFhb-w-4</t>
+  </si>
+  <si>
+    <t>microbiome</t>
+  </si>
+  <si>
+    <t>transcriptomics</t>
+  </si>
+  <si>
+    <t>BCBB SME</t>
   </si>
 </sst>
 </file>
@@ -630,12 +693,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1012,16 +1076,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
@@ -1136,15 +1200,15 @@
         <v>26</v>
       </c>
       <c r="P2" s="2">
-        <f t="shared" ref="P2:P5" si="0">(C2-DATE(1970,1,1))*86400</f>
+        <f t="shared" ref="P2:P10" si="0">(C2-DATE(1970,1,1))*86400</f>
         <v>1724976000</v>
       </c>
       <c r="Q2" s="2">
-        <f t="shared" ref="Q2:Q5" si="1">13/24</f>
+        <f t="shared" ref="Q2:Q10" si="1">13/24</f>
         <v>0.54166666666666663</v>
       </c>
       <c r="R2" s="2">
-        <f t="shared" ref="R2:R5" si="2">P2+Q2</f>
+        <f t="shared" ref="R2:R10" si="2">P2+Q2</f>
         <v>1724976000.5416667</v>
       </c>
     </row>
@@ -1316,7 +1380,293 @@
         <v>1726790400.5416667</v>
       </c>
     </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45588</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45588</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1729641600.5833333</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="0"/>
+        <v>1729641600</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>14/24</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="2"/>
+        <v>1729641600.5833333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1730419200.5833333</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="0"/>
+        <v>1730419200</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>14/24</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="2"/>
+        <v>1730419200.5833333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45604</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1731024000.5833333</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="0"/>
+        <v>1731024000</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>14/24</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="2"/>
+        <v>1731024000.5833333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45600</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1730678400.5416667</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="0"/>
+        <v>1730678400</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="2"/>
+        <v>1730678400.5416667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45611</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45611</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1731628800.5416667</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="0"/>
+        <v>1731628800</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="2"/>
+        <v>1731628800.5416667</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{0265776D-23F7-4441-AD9E-6BFE457E38B2}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{DC25BF45-3904-C04B-B53C-EF2D382E6BB8}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{65F23710-E528-434A-911E-763CDAA02F1D}"/>
+    <hyperlink ref="H9" r:id="rId4" xr:uid="{897BF1F6-E133-2244-8454-DDB795FA808D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/events2.xlsx
+++ b/events2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/squiresrb/Documents/GitHub/nbp_events_niaid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6987DEE-345F-E347-8044-7261DEC80211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA773DE4-2BFC-034F-90DC-E4AA92CF6026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="-20360" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3820" yWindow="3860" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="events2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
   <si>
     <t>type</t>
   </si>
@@ -200,7 +200,13 @@
     <t>transcriptomics</t>
   </si>
   <si>
-    <t>BCBB SME</t>
+    <t>Katie McCauley</t>
+  </si>
+  <si>
+    <t>Margaret Ho</t>
+  </si>
+  <si>
+    <t>Poorani Subramanian / Lauren Krausfeldt</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1477,7 +1483,7 @@
         <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="0"/>
@@ -1589,7 +1595,7 @@
         <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="0"/>
@@ -1645,7 +1651,7 @@
         <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="0"/>
